--- a/docs/bio metric integration estimation/UI_Timelines.xlsx
+++ b/docs/bio metric integration estimation/UI_Timelines.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git-Repository\PRY-CC\docs\bio metric integration estimation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="10320" windowHeight="5460"/>
+    <workbookView xWindow="120" yWindow="12" windowWidth="10320" windowHeight="5460"/>
   </bookViews>
   <sheets>
     <sheet name="UI_Estimate" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Development</t>
   </si>
@@ -47,66 +42,12 @@
     <t>Total</t>
   </si>
   <si>
-    <t>1. Map need to revamp like google map (zoom in and zoom out)</t>
-  </si>
-  <si>
-    <t>Map Functionality in Store dashboard</t>
-  </si>
-  <si>
-    <t>2. If implement the Google Map API, some existing functionalities need to fix</t>
-  </si>
-  <si>
-    <t>CSR Dashboard</t>
-  </si>
-  <si>
-    <t>1. VD for CSR Dashboard page</t>
-  </si>
-  <si>
-    <t>2. HTML for CSR Dashboard page(with all functionality)</t>
-  </si>
-  <si>
-    <t>3. HTML rework</t>
-  </si>
-  <si>
-    <t>Store Dashboard</t>
-  </si>
-  <si>
-    <t>1. Wireframe for Dashboard page</t>
-  </si>
-  <si>
-    <t>2. Wireframe rework</t>
-  </si>
-  <si>
-    <t>3. VD for Store Dashboard page</t>
-  </si>
-  <si>
-    <t>4. HTML for Store Dashboard page</t>
-  </si>
-  <si>
-    <t>5. HTML for Store Dashboard page (With Physical profile widget)</t>
-  </si>
-  <si>
-    <t>6. HTML for Store Dashboard page (With Modal Window)</t>
-  </si>
-  <si>
-    <t>4. Added Geolocation Tab</t>
-  </si>
-  <si>
     <t>Browse button functionality</t>
   </si>
   <si>
     <t>Navigation Tab Functionality</t>
   </si>
   <si>
-    <t>6. Fix chart Issue</t>
-  </si>
-  <si>
-    <t>5. Fix Responsive layout issues</t>
-  </si>
-  <si>
-    <t>7. Separate HTML File conversion</t>
-  </si>
-  <si>
     <t>Start date</t>
   </si>
   <si>
@@ -116,14 +57,74 @@
     <t>Status</t>
   </si>
   <si>
-    <t>in progress</t>
+    <t>1. CSR Dashboard</t>
+  </si>
+  <si>
+    <t>a. VD for CSR Dashboard page</t>
+  </si>
+  <si>
+    <t>b. HTML for CSR Dashboard page(with all functionality)</t>
+  </si>
+  <si>
+    <t>c. HTML rework</t>
+  </si>
+  <si>
+    <t>d. Added Geolocation Tab</t>
+  </si>
+  <si>
+    <t>e. Fix Responsive layout issues</t>
+  </si>
+  <si>
+    <t>f. Fix chart Issue</t>
+  </si>
+  <si>
+    <t>g. Separate HTML File conversion</t>
+  </si>
+  <si>
+    <t>h. UI Screen for Non Register Customers</t>
+  </si>
+  <si>
+    <t>2. Store Dashboard</t>
+  </si>
+  <si>
+    <t>a. Wireframe for Dashboard page</t>
+  </si>
+  <si>
+    <t>b. Wireframe rework</t>
+  </si>
+  <si>
+    <t>d. VD for Store Dashboard page</t>
+  </si>
+  <si>
+    <t>e. HTML for Store Dashboard page</t>
+  </si>
+  <si>
+    <t>f. HTML for Store Dashboard page (With Physical profile widget)</t>
+  </si>
+  <si>
+    <t>g. HTML for Store Dashboard page (With Modal Window)</t>
+  </si>
+  <si>
+    <t>3. Map Functionality in Store dashboard</t>
+  </si>
+  <si>
+    <t>a. Map need to revamp like google map (zoom in and zoom out)</t>
+  </si>
+  <si>
+    <t>b. If implement the Google Map API, some existing functionalities need to fix</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,7 +307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,10 +339,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,7 +373,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -549,29 +548,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="56.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="21">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="21">
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
@@ -591,18 +590,18 @@
         <v>6</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1">
       <c r="A5" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -613,9 +612,9 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>9</v>
@@ -630,9 +629,9 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>45</v>
@@ -647,9 +646,9 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
         <v>30</v>
@@ -664,9 +663,9 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>12</v>
@@ -681,9 +680,9 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>25</v>
@@ -698,9 +697,9 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2">
         <v>14</v>
@@ -715,9 +714,9 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>27</v>
+    <row r="12" spans="1:9">
+      <c r="A12" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="2">
         <v>12</v>
@@ -732,286 +731,315 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>30</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="F13" s="2">
+        <v>30</v>
+      </c>
+      <c r="G13" s="14">
+        <v>42212</v>
+      </c>
+      <c r="H13" s="14">
+        <v>42215</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2">
+    <row r="15" spans="1:9">
+      <c r="A15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
         <v>18</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2">
-        <v>18</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2">
+        <v>45</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2">
-        <v>9</v>
-      </c>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2">
-        <v>9</v>
-      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
+    <row r="23" spans="1:9">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2">
+        <v>9</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2">
+        <v>9</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2">
-        <v>6</v>
-      </c>
+    <row r="24" spans="1:9">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2">
-        <v>6</v>
-      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+    <row r="25" spans="1:9">
+      <c r="A25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2">
+        <v>6</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2">
+        <v>6</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="2">
-        <v>60</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2">
-        <v>60</v>
-      </c>
-      <c r="G27" s="14">
-        <v>42208</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>10</v>
+    <row r="27" spans="1:9">
+      <c r="A27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B28" s="2">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2">
+        <v>45</v>
+      </c>
+      <c r="G28" s="14">
+        <v>42205</v>
+      </c>
+      <c r="H28" s="14">
+        <v>42209</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="28.8">
+      <c r="A29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2">
         <v>25</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="F29" s="2">
+        <v>25</v>
+      </c>
+      <c r="G29" s="14">
+        <v>42209</v>
+      </c>
       <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9">
-        <v>368</v>
-      </c>
+      <c r="I29" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+    <row r="31" spans="1:9">
+      <c r="A31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9">
+        <v>383</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1020,24 +1048,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/bio metric integration estimation/UI_Timelines.xlsx
+++ b/docs/bio metric integration estimation/UI_Timelines.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Development</t>
   </si>
@@ -117,7 +117,10 @@
     <t>Done</t>
   </si>
   <si>
-    <t>In progress</t>
+    <t xml:space="preserve">     Not Started</t>
+  </si>
+  <si>
+    <t>i. CSR Dashboard design for Ipad mini</t>
   </si>
 </sst>
 </file>
@@ -549,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I32"/>
+  <dimension ref="A2:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -732,7 +735,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="2">
@@ -755,58 +758,56 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="2"/>
+      <c r="A14" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="14"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2">
-        <v>18</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -814,16 +815,16 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -831,16 +832,16 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -848,16 +849,16 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2">
         <v>27</v>
-      </c>
-      <c r="B20" s="2">
-        <v>18</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -865,181 +866,211 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2">
+        <v>45</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="2">
-        <v>9</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2">
-        <v>9</v>
-      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2">
+        <v>9</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2">
+        <v>9</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="2">
-        <v>6</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2">
-        <v>6</v>
-      </c>
+      <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2">
+        <v>6</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2">
+        <v>6</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B29" s="2">
         <v>45</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2">
-        <v>45</v>
-      </c>
-      <c r="G28" s="14">
-        <v>42205</v>
-      </c>
-      <c r="H28" s="14">
-        <v>42209</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="28.8">
-      <c r="A29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="2">
-        <v>25</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2">
+        <v>45</v>
+      </c>
+      <c r="G29" s="14">
+        <v>42205</v>
+      </c>
+      <c r="H29" s="14">
+        <v>42209</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="28.8">
+      <c r="A30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2">
         <v>25</v>
       </c>
-      <c r="G29" s="14">
-        <v>42209</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="F30" s="2">
+        <v>25</v>
+      </c>
+      <c r="G30" s="14">
+        <v>42209</v>
+      </c>
+      <c r="H30" s="14">
+        <v>42226</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9">
-        <v>383</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9">
+        <v>383</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/bio metric integration estimation/UI_Timelines.xlsx
+++ b/docs/bio metric integration estimation/UI_Timelines.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Development</t>
   </si>
@@ -117,10 +117,13 @@
     <t>Done</t>
   </si>
   <si>
-    <t xml:space="preserve">     Not Started</t>
-  </si>
-  <si>
     <t>i. CSR Dashboard design for Ipad mini</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>h. Store Dashboard design for Ipad mini</t>
   </si>
 </sst>
 </file>
@@ -552,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I34"/>
+  <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -759,18 +762,24 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B14" s="2">
+        <v>20</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14" t="s">
-        <v>33</v>
+      <c r="F14" s="2">
+        <v>20</v>
+      </c>
+      <c r="G14" s="14">
+        <v>42229</v>
       </c>
       <c r="H14" s="14"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2"/>
@@ -899,178 +908,199 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="F23" s="2">
+        <v>20</v>
+      </c>
+      <c r="G23" s="14">
+        <v>42229</v>
+      </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="2">
-        <v>9</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2">
-        <v>9</v>
-      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2">
+        <v>9</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2">
+        <v>9</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="2">
-        <v>6</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2">
-        <v>6</v>
-      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="2">
+        <v>6</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2">
+        <v>6</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B30" s="2">
         <v>45</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2">
-        <v>45</v>
-      </c>
-      <c r="G29" s="14">
-        <v>42205</v>
-      </c>
-      <c r="H29" s="14">
-        <v>42209</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="28.8">
-      <c r="A30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="2">
-        <v>25</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G30" s="14">
+        <v>42205</v>
+      </c>
+      <c r="H30" s="14">
         <v>42209</v>
-      </c>
-      <c r="H30" s="14">
-        <v>42226</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="4"/>
-      <c r="B31" s="2"/>
+    <row r="31" spans="1:9" ht="28.8">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2">
+        <v>25</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="F31" s="2">
+        <v>25</v>
+      </c>
+      <c r="G31" s="14">
+        <v>42209</v>
+      </c>
+      <c r="H31" s="14">
+        <v>42226</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="2"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="G32" s="14"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9">
         <v>383</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
